--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9983.91</v>
+      </c>
+      <c r="B4">
+        <v>9961</v>
+      </c>
+      <c r="C4">
+        <v>286.39</v>
+      </c>
+      <c r="D4">
+        <v>287.04000000000002</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42608.639664351853</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +464,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10049.799999999999</v>
+      </c>
+      <c r="B5">
+        <v>9983.91</v>
+      </c>
+      <c r="C5">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="D5">
+        <v>284.76</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42609.506064814814</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9948.2999999999993</v>
+      </c>
+      <c r="B6">
+        <v>10049.799999999999</v>
+      </c>
+      <c r="C6">
+        <v>286</v>
+      </c>
+      <c r="D6">
+        <v>283.11</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1.01</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42612.675081018519</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/IBB/IBBRandomTrade20.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -516,6 +516,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9994.06</v>
+      </c>
+      <c r="B7">
+        <v>9948.2999999999993</v>
+      </c>
+      <c r="C7">
+        <v>283.47000000000003</v>
+      </c>
+      <c r="D7">
+        <v>284.77</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42613.767106481479</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9996.06</v>
+      </c>
+      <c r="B8">
+        <v>9994.06</v>
+      </c>
+      <c r="C8">
+        <v>282.39</v>
+      </c>
+      <c r="D8">
+        <v>282.45999999999998</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42614.674178240741</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10030.049999999999</v>
+      </c>
+      <c r="B9">
+        <v>9996.06</v>
+      </c>
+      <c r="C9">
+        <v>280.62</v>
+      </c>
+      <c r="D9">
+        <v>281.57</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42615.752754629626</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
